--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>Id</t>
   </si>
@@ -182,6 +182,66 @@
   </si>
   <si>
     <t>NA_Effekseer/NA_smoke_004</t>
+  </si>
+  <si>
+    <t>NA_Effekseer/NA_cut-in_002_1</t>
+  </si>
+  <si>
+    <t>NA_Effekseer/NA_cut-in_002_2</t>
+  </si>
+  <si>
+    <t>NA_Effekseer/NA_cut-in_002_3</t>
+  </si>
+  <si>
+    <t>NA_Effekseer/NA_cut-in_002_4</t>
+  </si>
+  <si>
+    <t>NA_Effekseer/NA_cut-in_002_5</t>
+  </si>
+  <si>
+    <t>NA_Effekseer_Vol_2/NA_v2_3d_Magic Circle_normal</t>
+  </si>
+  <si>
+    <t>NA_Effekseer_Vol_2/NA_v2_3d_Magic Circle_Fire</t>
+  </si>
+  <si>
+    <t>NA_Effekseer_Vol_2/NA_v2_3d_Magic Circle_electric</t>
+  </si>
+  <si>
+    <t>NA_Effekseer_Vol_2/NA_v2_3d_Magic Circle_ice</t>
+  </si>
+  <si>
+    <t>NA_Effekseer_Vol_2/NA_v2_3d_Magic Circle_light</t>
+  </si>
+  <si>
+    <t>NA_Effekseer_Vol_2/NA_v2_3d_Magic Circle_dark</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/Undine11</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/Thunder3</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/Salamander7</t>
+  </si>
+  <si>
+    <t>NA_Effekseer/NA_poison_001</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/IcicleLocus</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/Thunder1</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/AquaPoint</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/WHead1</t>
+  </si>
+  <si>
+    <t>EffekseerVol_3/NA_v3_3d_electrification_dark</t>
   </si>
 </sst>
 </file>
@@ -190,9 +250,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -204,37 +264,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,15 +288,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +324,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -288,6 +341,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,14 +370,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -326,15 +378,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,13 +416,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,169 +584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,8 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,26 +636,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,6 +658,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -630,20 +693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,145 +715,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,10 +1212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D3:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1234,7 +1294,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1245,7 +1305,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1256,10 +1316,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1267,10 +1327,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1278,10 +1338,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1289,10 +1349,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1300,7 +1360,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1311,7 +1371,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1322,10 +1382,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1333,10 +1393,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1344,10 +1404,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1355,10 +1415,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1366,10 +1426,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1377,10 +1437,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1388,10 +1448,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1399,10 +1459,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1410,10 +1470,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1421,10 +1481,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1432,10 +1492,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1443,10 +1503,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1454,10 +1514,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1465,10 +1525,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1476,10 +1536,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1487,10 +1547,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -1498,10 +1558,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -1509,10 +1569,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -1520,10 +1580,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -1531,10 +1591,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -1542,10 +1602,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -1553,10 +1613,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -1564,10 +1624,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -1575,10 +1635,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>401</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -1586,10 +1646,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>402</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -1597,10 +1657,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -1608,10 +1668,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -1619,10 +1679,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -1630,10 +1690,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -1641,10 +1701,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -1652,10 +1712,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -1663,10 +1723,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -1674,10 +1734,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -1685,10 +1745,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -1696,10 +1756,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>501</v>
+        <v>421</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -1707,10 +1767,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>502</v>
+        <v>422</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -1718,10 +1778,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -1729,10 +1789,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -1740,10 +1800,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -1751,10 +1811,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -1762,10 +1822,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -1773,10 +1833,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -1784,10 +1844,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -1795,10 +1855,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -1806,10 +1866,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -1817,12 +1877,254 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
+        <v>521</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>522</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
         <v>601</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>51</v>
       </c>
-      <c r="C60" t="b">
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>1001</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>1002</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>1003</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>1004</v>
+      </c>
+      <c r="B66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>1005</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>2001</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>2002</v>
+      </c>
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>2003</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>2004</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>2005</v>
+      </c>
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>2006</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>5001</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>5002</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>5003</v>
+      </c>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>5004</v>
+      </c>
+      <c r="B77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>5005</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>5006</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>5007</v>
+      </c>
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>5008</v>
+      </c>
+      <c r="B81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>5009</v>
+      </c>
+      <c r="B82" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -249,10 +249,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -264,53 +264,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,9 +279,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,6 +325,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,9 +353,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,8 +370,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,14 +395,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,13 +416,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,169 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,8 +612,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -634,15 +636,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -658,13 +651,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,17 +690,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,145 +715,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,8 +1214,8 @@
   <sheetPr/>
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>AnimationPath</t>
+  </si>
+  <si>
+    <t>MakerEffect</t>
   </si>
   <si>
     <t>Enable</t>
@@ -249,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -263,9 +266,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,40 +318,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,15 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,6 +352,22 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,14 +397,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -399,13 +409,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -416,91 +419,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,91 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,6 +654,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -662,15 +674,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,145 +718,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,919 +1215,1166 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="51.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="11.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="3" max="3" width="11.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="11.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>205</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>213</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>214</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>221</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>222</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>301</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>302</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>303</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>304</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>305</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>311</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>312</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>313</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>314</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>321</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>322</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>401</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>402</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>403</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>404</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>405</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>411</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>412</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>413</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>414</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>421</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>422</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>501</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>502</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>503</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>504</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>505</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>511</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>512</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>513</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>514</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>521</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>522</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>601</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>1001</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>1002</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>1003</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>1004</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>60</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>1005</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>2001</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>62</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>2002</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>2003</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>2004</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>2005</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>2006</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>67</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>5001</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>68</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>5002</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>69</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>5003</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>70</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>5004</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>5005</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>5006</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>73</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>5007</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>74</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>5008</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
-      </c>
-      <c r="C81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>5009</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" t="b">
+        <v>76</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>Id</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>MakerEffect</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>DamageTiming</t>
   </si>
   <si>
     <t>Enable</t>
@@ -252,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -267,7 +276,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,30 +304,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,9 +361,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,14 +411,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -362,53 +418,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -419,7 +428,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,13 +506,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,55 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,43 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,13 +584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,6 +603,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,6 +629,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,15 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -678,26 +702,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,145 +727,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,22 +1224,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81:F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="51.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="11.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="11.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="3" max="6" width="11.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="11.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1240,1141 +1249,1879 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>205</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>213</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>214</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>221</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>222</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>301</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>302</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>303</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>304</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>305</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>311</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>312</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>313</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>314</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>30</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>321</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>322</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>401</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>30</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>402</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>403</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>30</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>404</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>30</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>405</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>411</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>30</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>412</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>413</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>414</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>421</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>422</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>30</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>501</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>30</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>502</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>30</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>503</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>504</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="D54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>30</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>505</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>30</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>511</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>512</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>30</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>513</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>30</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>514</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>521</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>522</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>30</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>601</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>30</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>1001</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>30</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>1002</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>1003</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>30</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>1004</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>30</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>1005</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>30</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>2001</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>30</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>2002</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>30</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>2003</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>30</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>2004</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>30</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>2005</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>30</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>2006</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>30</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>5001</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>5002</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
-      <c r="D75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>5003</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
-      <c r="D76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>30</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>5004</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
-      <c r="D77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>30</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>5005</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
-      <c r="D78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>30</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>5006</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
-      <c r="D79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>30</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>5007</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
-      <c r="D80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>30</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>5008</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
-      <c r="D81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>30</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>5009</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
-      <c r="D82" t="b">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>30</v>
+      </c>
+      <c r="G82" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -288,10 +288,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -302,8 +302,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,30 +339,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -354,6 +362,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -363,7 +379,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,17 +392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,30 +408,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -434,6 +426,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,13 +455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,13 +485,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,13 +521,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,97 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,19 +605,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,15 +723,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -746,6 +737,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -754,145 +754,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1413,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -1442,13 +1442,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -1760,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="G19">
         <v>30</v>

--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>Id</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>NA_Effekseer/NA_slash_003_c3</t>
+  </si>
+  <si>
+    <t>氷攻撃</t>
   </si>
   <si>
     <t>tktk02/Light1</t>
@@ -288,10 +291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -302,16 +305,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,14 +334,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -339,18 +341,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,8 +373,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -385,15 +411,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,40 +442,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,7 +464,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,25 +500,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,49 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +548,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,61 +632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,17 +649,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -684,6 +676,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -695,30 +698,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,6 +725,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -754,145 +757,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1253,8 +1256,8 @@
   <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2035,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>301</v>
       </c>
@@ -2049,16 +2052,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G30">
         <v>30</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2066,7 +2072,7 @@
         <v>302</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2092,7 +2098,7 @@
         <v>303</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2118,7 +2124,7 @@
         <v>304</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2144,7 +2150,7 @@
         <v>305</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2170,7 +2176,7 @@
         <v>311</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2196,7 +2202,7 @@
         <v>312</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2222,7 +2228,7 @@
         <v>313</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2248,7 +2254,7 @@
         <v>314</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2274,7 +2280,7 @@
         <v>321</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2300,7 +2306,7 @@
         <v>322</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2326,7 +2332,7 @@
         <v>401</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2347,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2355,7 +2361,7 @@
         <v>402</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2407,7 +2413,7 @@
         <v>404</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2433,7 +2439,7 @@
         <v>405</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2459,7 +2465,7 @@
         <v>411</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2485,7 +2491,7 @@
         <v>412</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2511,7 +2517,7 @@
         <v>413</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2537,7 +2543,7 @@
         <v>414</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2563,7 +2569,7 @@
         <v>421</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2589,7 +2595,7 @@
         <v>422</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2615,7 +2621,7 @@
         <v>501</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2636,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2644,7 +2650,7 @@
         <v>502</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2670,7 +2676,7 @@
         <v>503</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2696,7 +2702,7 @@
         <v>504</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2722,7 +2728,7 @@
         <v>505</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2748,7 +2754,7 @@
         <v>511</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2774,7 +2780,7 @@
         <v>512</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2800,7 +2806,7 @@
         <v>513</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2826,7 +2832,7 @@
         <v>514</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2852,7 +2858,7 @@
         <v>521</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2878,7 +2884,7 @@
         <v>522</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2904,7 +2910,7 @@
         <v>601</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2930,7 +2936,7 @@
         <v>1001</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2956,7 +2962,7 @@
         <v>1002</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2982,7 +2988,7 @@
         <v>1003</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3008,7 +3014,7 @@
         <v>1004</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3034,7 +3040,7 @@
         <v>1005</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3060,7 +3066,7 @@
         <v>2001</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3086,7 +3092,7 @@
         <v>2002</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3112,7 +3118,7 @@
         <v>2003</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3138,7 +3144,7 @@
         <v>2004</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3164,7 +3170,7 @@
         <v>2005</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3190,7 +3196,7 @@
         <v>2006</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3216,7 +3222,7 @@
         <v>5001</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3242,7 +3248,7 @@
         <v>5002</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3268,7 +3274,7 @@
         <v>5003</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3294,7 +3300,7 @@
         <v>5004</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3320,7 +3326,7 @@
         <v>5005</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3346,7 +3352,7 @@
         <v>5006</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3372,7 +3378,7 @@
         <v>5007</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3398,7 +3404,7 @@
         <v>5008</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3424,7 +3430,7 @@
         <v>5009</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C83">
         <v>0</v>

--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -292,9 +292,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -302,13 +302,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,21 +314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,10 +329,77 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,9 +411,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,67 +448,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -458,13 +458,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,31 +572,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,19 +602,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,91 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,13 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,26 +667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -702,17 +682,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,7 +695,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,6 +723,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -757,145 +757,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="F30">
         <v>1.5</v>
@@ -2341,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G41">
         <v>30</v>

--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -293,8 +293,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -307,29 +307,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -341,6 +318,43 @@
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,14 +374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,9 +388,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,23 +425,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,22 +443,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,7 +458,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +500,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +536,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,25 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,61 +614,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,55 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,6 +649,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -663,6 +683,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,20 +711,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,34 +744,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,145 +757,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,8 +1256,8 @@
   <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G52">
         <v>30</v>

--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -291,10 +291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -305,32 +305,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,33 +319,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,6 +342,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -403,47 +441,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,7 +458,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,31 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,73 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,25 +602,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,12 +642,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -654,11 +654,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,8 +664,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,9 +687,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +726,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -725,30 +749,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -757,145 +757,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,8 +1256,8 @@
   <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>30</v>

--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -291,10 +291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -306,29 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,7 +321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,13 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -372,9 +343,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,19 +372,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -434,8 +410,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,7 +428,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,7 +458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,25 +482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,43 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +524,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,19 +608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,49 +620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,20 +652,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,11 +684,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,21 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -735,17 +730,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,145 +757,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,8 +1256,8 @@
   <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -1451,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>1.4</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>1.5</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         <v>1.5</v>
       </c>
       <c r="G41">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H44" t="b">
         <v>1</v>
@@ -2454,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
@@ -2636,7 +2636,7 @@
         <v>1.2</v>
       </c>
       <c r="G52">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
@@ -2665,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H56" t="b">
         <v>1</v>
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2951,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -3029,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H69" t="b">
         <v>1</v>
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H72" t="b">
         <v>1</v>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
@@ -3237,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -3263,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H77" t="b">
         <v>1</v>
@@ -3315,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -3341,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H79" t="b">
         <v>1</v>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
@@ -3445,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H83" t="b">
         <v>1</v>
